--- a/uploads/standard/人员导入模板.xlsx
+++ b/uploads/standard/人员导入模板.xlsx
@@ -19,12 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>身份证</t>
   </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>111111111111111111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰流晴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -112,7 +120,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -124,6 +132,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,12 +447,12 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
@@ -455,8 +466,12 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="4"/>
